--- a/Zadanie4/data.xlsx
+++ b/Zadanie4/data.xlsx
@@ -22,799 +22,799 @@
     <t>cup</t>
   </si>
   <si>
-    <t>cup_images\cup(100).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(101).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(102).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(103).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(104).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(105).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(106).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(107).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(108).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(109).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(110).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(111).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(112).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(113).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(114).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(115).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(116).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(117).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(118).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(119).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(120).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(121).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(122).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(123).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(124).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(125).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(126).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(127).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(128).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(129).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(130).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(131).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(132).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(133).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(134).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(135).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(136).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(137).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(138).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(139).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(140).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(141).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(142).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(143).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(144).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(145).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(146).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(147).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(148).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(149).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(150).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(151).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(152).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(153).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(154).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(155).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(156).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(158).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(159).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(160).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(161).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(162).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(163).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(164).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(165).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(166).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(167).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(168).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(170).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(171).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(172).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(173).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(174).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(175).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(176).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(177).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(178).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(179).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(180).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(182).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(183).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(184).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(185).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(186).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(187).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(188).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(189).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(190).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(191).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(192).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(193).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(194).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(195).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(196).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(197).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(198).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(199).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(200).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(201).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(202).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(203).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(204).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(205).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(206).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(207).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(208).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(209).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(210).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(211).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(212).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(213).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(214).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(215).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(216).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(217).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(218).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(219).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(220).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(221).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(222).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(223).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(225).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(226).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(227).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(228).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(229).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(230).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(231).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(232).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(233).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(234).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(235).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(236).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(237).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(238).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(239).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(240).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(241).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(242).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(243).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(244).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(245).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(246).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(247).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(248).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(249).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(250).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(251).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(252).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(253).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(254).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(255).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(256).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(257).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(258).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(259).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(260).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(261).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(262).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(263).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(264).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(265).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(266).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(267).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(268).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(269).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(270).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(271).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(275).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(276).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(277).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(278).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(279).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(280).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(281).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(282).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(283).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(284).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(285).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(286).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(287).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(288).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(289).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(290).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(291).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(292).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(293).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(294).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(295).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(296).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(297).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(302).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(305).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(306).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(307).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(308).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(309).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(311).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(312).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(313).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(314).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(315).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(316).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(317).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(318).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(319).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(324).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(325).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(326).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(327).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(328).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(329).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(330).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(331).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(332).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(333).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(334).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(336).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(354).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(355).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(356).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(357).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(358).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(359).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(360).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(361).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(362).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(363).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(364).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(365).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(368).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(369).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(370).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(371).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(372).JPG</t>
-  </si>
-  <si>
-    <t>cup_images\cup(373).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(374).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(375).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(376).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(379).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(380).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(381).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(382).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(383).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(387).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(389).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(390).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(392).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(393).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(394).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(396).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(398).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(399).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(400).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(401).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(402).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(403).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(406).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(409).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(410).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(412).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(413).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(414).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(415).jpg</t>
-  </si>
-  <si>
-    <t>cup_images\cup(416).jpg</t>
+    <t>cup(100).jpg</t>
+  </si>
+  <si>
+    <t>cup(101).jpg</t>
+  </si>
+  <si>
+    <t>cup(102).jpg</t>
+  </si>
+  <si>
+    <t>cup(103).jpg</t>
+  </si>
+  <si>
+    <t>cup(104).jpg</t>
+  </si>
+  <si>
+    <t>cup(105).jpg</t>
+  </si>
+  <si>
+    <t>cup(106).jpg</t>
+  </si>
+  <si>
+    <t>cup(107).jpg</t>
+  </si>
+  <si>
+    <t>cup(108).jpg</t>
+  </si>
+  <si>
+    <t>cup(109).jpg</t>
+  </si>
+  <si>
+    <t>cup(110).jpg</t>
+  </si>
+  <si>
+    <t>cup(111).jpg</t>
+  </si>
+  <si>
+    <t>cup(112).jpg</t>
+  </si>
+  <si>
+    <t>cup(113).jpg</t>
+  </si>
+  <si>
+    <t>cup(114).jpg</t>
+  </si>
+  <si>
+    <t>cup(115).jpg</t>
+  </si>
+  <si>
+    <t>cup(116).jpg</t>
+  </si>
+  <si>
+    <t>cup(117).jpg</t>
+  </si>
+  <si>
+    <t>cup(118).jpg</t>
+  </si>
+  <si>
+    <t>cup(119).jpg</t>
+  </si>
+  <si>
+    <t>cup(120).jpg</t>
+  </si>
+  <si>
+    <t>cup(121).jpg</t>
+  </si>
+  <si>
+    <t>cup(122).jpg</t>
+  </si>
+  <si>
+    <t>cup(123).jpg</t>
+  </si>
+  <si>
+    <t>cup(124).jpg</t>
+  </si>
+  <si>
+    <t>cup(125).jpg</t>
+  </si>
+  <si>
+    <t>cup(126).jpg</t>
+  </si>
+  <si>
+    <t>cup(127).jpg</t>
+  </si>
+  <si>
+    <t>cup(128).jpg</t>
+  </si>
+  <si>
+    <t>cup(129).jpg</t>
+  </si>
+  <si>
+    <t>cup(130).jpg</t>
+  </si>
+  <si>
+    <t>cup(131).jpg</t>
+  </si>
+  <si>
+    <t>cup(132).jpg</t>
+  </si>
+  <si>
+    <t>cup(133).jpg</t>
+  </si>
+  <si>
+    <t>cup(134).jpg</t>
+  </si>
+  <si>
+    <t>cup(135).jpg</t>
+  </si>
+  <si>
+    <t>cup(136).jpg</t>
+  </si>
+  <si>
+    <t>cup(137).jpg</t>
+  </si>
+  <si>
+    <t>cup(138).jpg</t>
+  </si>
+  <si>
+    <t>cup(139).jpg</t>
+  </si>
+  <si>
+    <t>cup(140).jpg</t>
+  </si>
+  <si>
+    <t>cup(141).jpg</t>
+  </si>
+  <si>
+    <t>cup(142).jpg</t>
+  </si>
+  <si>
+    <t>cup(143).jpg</t>
+  </si>
+  <si>
+    <t>cup(144).jpg</t>
+  </si>
+  <si>
+    <t>cup(145).jpg</t>
+  </si>
+  <si>
+    <t>cup(146).jpg</t>
+  </si>
+  <si>
+    <t>cup(147).jpg</t>
+  </si>
+  <si>
+    <t>cup(148).jpg</t>
+  </si>
+  <si>
+    <t>cup(149).jpg</t>
+  </si>
+  <si>
+    <t>cup(150).jpg</t>
+  </si>
+  <si>
+    <t>cup(151).jpg</t>
+  </si>
+  <si>
+    <t>cup(152).jpg</t>
+  </si>
+  <si>
+    <t>cup(153).jpg</t>
+  </si>
+  <si>
+    <t>cup(154).jpg</t>
+  </si>
+  <si>
+    <t>cup(155).jpg</t>
+  </si>
+  <si>
+    <t>cup(156).jpg</t>
+  </si>
+  <si>
+    <t>cup(158).jpg</t>
+  </si>
+  <si>
+    <t>cup(159).jpg</t>
+  </si>
+  <si>
+    <t>cup(160).jpg</t>
+  </si>
+  <si>
+    <t>cup(161).jpg</t>
+  </si>
+  <si>
+    <t>cup(162).jpg</t>
+  </si>
+  <si>
+    <t>cup(163).jpg</t>
+  </si>
+  <si>
+    <t>cup(164).jpg</t>
+  </si>
+  <si>
+    <t>cup(165).jpg</t>
+  </si>
+  <si>
+    <t>cup(166).jpg</t>
+  </si>
+  <si>
+    <t>cup(167).jpg</t>
+  </si>
+  <si>
+    <t>cup(168).jpg</t>
+  </si>
+  <si>
+    <t>cup(170).jpg</t>
+  </si>
+  <si>
+    <t>cup(171).jpg</t>
+  </si>
+  <si>
+    <t>cup(172).jpg</t>
+  </si>
+  <si>
+    <t>cup(173).jpg</t>
+  </si>
+  <si>
+    <t>cup(174).jpg</t>
+  </si>
+  <si>
+    <t>cup(175).jpg</t>
+  </si>
+  <si>
+    <t>cup(176).jpg</t>
+  </si>
+  <si>
+    <t>cup(177).jpg</t>
+  </si>
+  <si>
+    <t>cup(178).jpg</t>
+  </si>
+  <si>
+    <t>cup(179).jpg</t>
+  </si>
+  <si>
+    <t>cup(180).jpg</t>
+  </si>
+  <si>
+    <t>cup(182).jpg</t>
+  </si>
+  <si>
+    <t>cup(183).jpg</t>
+  </si>
+  <si>
+    <t>cup(184).jpg</t>
+  </si>
+  <si>
+    <t>cup(185).jpg</t>
+  </si>
+  <si>
+    <t>cup(186).jpg</t>
+  </si>
+  <si>
+    <t>cup(187).jpg</t>
+  </si>
+  <si>
+    <t>cup(188).jpg</t>
+  </si>
+  <si>
+    <t>cup(189).jpg</t>
+  </si>
+  <si>
+    <t>cup(190).jpg</t>
+  </si>
+  <si>
+    <t>cup(191).jpg</t>
+  </si>
+  <si>
+    <t>cup(192).jpg</t>
+  </si>
+  <si>
+    <t>cup(193).jpg</t>
+  </si>
+  <si>
+    <t>cup(194).jpg</t>
+  </si>
+  <si>
+    <t>cup(195).jpg</t>
+  </si>
+  <si>
+    <t>cup(196).jpg</t>
+  </si>
+  <si>
+    <t>cup(197).jpg</t>
+  </si>
+  <si>
+    <t>cup(198).jpg</t>
+  </si>
+  <si>
+    <t>cup(199).jpg</t>
+  </si>
+  <si>
+    <t>cup(200).jpg</t>
+  </si>
+  <si>
+    <t>cup(201).jpg</t>
+  </si>
+  <si>
+    <t>cup(202).jpg</t>
+  </si>
+  <si>
+    <t>cup(203).jpg</t>
+  </si>
+  <si>
+    <t>cup(204).jpg</t>
+  </si>
+  <si>
+    <t>cup(205).jpg</t>
+  </si>
+  <si>
+    <t>cup(206).jpg</t>
+  </si>
+  <si>
+    <t>cup(207).jpg</t>
+  </si>
+  <si>
+    <t>cup(208).jpg</t>
+  </si>
+  <si>
+    <t>cup(209).jpg</t>
+  </si>
+  <si>
+    <t>cup(210).jpg</t>
+  </si>
+  <si>
+    <t>cup(211).jpg</t>
+  </si>
+  <si>
+    <t>cup(212).jpg</t>
+  </si>
+  <si>
+    <t>cup(213).jpg</t>
+  </si>
+  <si>
+    <t>cup(214).jpg</t>
+  </si>
+  <si>
+    <t>cup(215).jpg</t>
+  </si>
+  <si>
+    <t>cup(216).jpg</t>
+  </si>
+  <si>
+    <t>cup(217).jpg</t>
+  </si>
+  <si>
+    <t>cup(218).jpg</t>
+  </si>
+  <si>
+    <t>cup(219).jpg</t>
+  </si>
+  <si>
+    <t>cup(220).jpg</t>
+  </si>
+  <si>
+    <t>cup(221).jpg</t>
+  </si>
+  <si>
+    <t>cup(222).jpg</t>
+  </si>
+  <si>
+    <t>cup(223).jpg</t>
+  </si>
+  <si>
+    <t>cup(225).jpg</t>
+  </si>
+  <si>
+    <t>cup(226).jpg</t>
+  </si>
+  <si>
+    <t>cup(227).jpg</t>
+  </si>
+  <si>
+    <t>cup(228).jpg</t>
+  </si>
+  <si>
+    <t>cup(229).jpg</t>
+  </si>
+  <si>
+    <t>cup(230).jpg</t>
+  </si>
+  <si>
+    <t>cup(231).jpg</t>
+  </si>
+  <si>
+    <t>cup(232).jpg</t>
+  </si>
+  <si>
+    <t>cup(233).jpg</t>
+  </si>
+  <si>
+    <t>cup(234).jpg</t>
+  </si>
+  <si>
+    <t>cup(235).jpg</t>
+  </si>
+  <si>
+    <t>cup(236).jpg</t>
+  </si>
+  <si>
+    <t>cup(237).jpg</t>
+  </si>
+  <si>
+    <t>cup(238).jpg</t>
+  </si>
+  <si>
+    <t>cup(239).jpg</t>
+  </si>
+  <si>
+    <t>cup(240).jpg</t>
+  </si>
+  <si>
+    <t>cup(241).jpg</t>
+  </si>
+  <si>
+    <t>cup(242).jpg</t>
+  </si>
+  <si>
+    <t>cup(243).jpg</t>
+  </si>
+  <si>
+    <t>cup(244).jpg</t>
+  </si>
+  <si>
+    <t>cup(245).jpg</t>
+  </si>
+  <si>
+    <t>cup(246).jpg</t>
+  </si>
+  <si>
+    <t>cup(247).jpg</t>
+  </si>
+  <si>
+    <t>cup(248).jpg</t>
+  </si>
+  <si>
+    <t>cup(249).jpg</t>
+  </si>
+  <si>
+    <t>cup(250).jpg</t>
+  </si>
+  <si>
+    <t>cup(251).jpg</t>
+  </si>
+  <si>
+    <t>cup(252).jpg</t>
+  </si>
+  <si>
+    <t>cup(253).jpg</t>
+  </si>
+  <si>
+    <t>cup(254).jpg</t>
+  </si>
+  <si>
+    <t>cup(255).jpg</t>
+  </si>
+  <si>
+    <t>cup(256).jpg</t>
+  </si>
+  <si>
+    <t>cup(257).jpg</t>
+  </si>
+  <si>
+    <t>cup(258).jpg</t>
+  </si>
+  <si>
+    <t>cup(259).JPG</t>
+  </si>
+  <si>
+    <t>cup(260).JPG</t>
+  </si>
+  <si>
+    <t>cup(261).JPG</t>
+  </si>
+  <si>
+    <t>cup(262).JPG</t>
+  </si>
+  <si>
+    <t>cup(263).JPG</t>
+  </si>
+  <si>
+    <t>cup(264).JPG</t>
+  </si>
+  <si>
+    <t>cup(265).JPG</t>
+  </si>
+  <si>
+    <t>cup(266).JPG</t>
+  </si>
+  <si>
+    <t>cup(267).JPG</t>
+  </si>
+  <si>
+    <t>cup(268).JPG</t>
+  </si>
+  <si>
+    <t>cup(269).JPG</t>
+  </si>
+  <si>
+    <t>cup(270).JPG</t>
+  </si>
+  <si>
+    <t>cup(271).JPG</t>
+  </si>
+  <si>
+    <t>cup(275).JPG</t>
+  </si>
+  <si>
+    <t>cup(276).JPG</t>
+  </si>
+  <si>
+    <t>cup(277).JPG</t>
+  </si>
+  <si>
+    <t>cup(278).JPG</t>
+  </si>
+  <si>
+    <t>cup(279).JPG</t>
+  </si>
+  <si>
+    <t>cup(280).JPG</t>
+  </si>
+  <si>
+    <t>cup(281).JPG</t>
+  </si>
+  <si>
+    <t>cup(282).JPG</t>
+  </si>
+  <si>
+    <t>cup(283).JPG</t>
+  </si>
+  <si>
+    <t>cup(284).JPG</t>
+  </si>
+  <si>
+    <t>cup(285).JPG</t>
+  </si>
+  <si>
+    <t>cup(286).JPG</t>
+  </si>
+  <si>
+    <t>cup(287).JPG</t>
+  </si>
+  <si>
+    <t>cup(288).JPG</t>
+  </si>
+  <si>
+    <t>cup(289).JPG</t>
+  </si>
+  <si>
+    <t>cup(290).JPG</t>
+  </si>
+  <si>
+    <t>cup(291).JPG</t>
+  </si>
+  <si>
+    <t>cup(292).JPG</t>
+  </si>
+  <si>
+    <t>cup(293).JPG</t>
+  </si>
+  <si>
+    <t>cup(294).JPG</t>
+  </si>
+  <si>
+    <t>cup(295).JPG</t>
+  </si>
+  <si>
+    <t>cup(296).JPG</t>
+  </si>
+  <si>
+    <t>cup(297).JPG</t>
+  </si>
+  <si>
+    <t>cup(302).JPG</t>
+  </si>
+  <si>
+    <t>cup(305).JPG</t>
+  </si>
+  <si>
+    <t>cup(306).JPG</t>
+  </si>
+  <si>
+    <t>cup(307).JPG</t>
+  </si>
+  <si>
+    <t>cup(308).JPG</t>
+  </si>
+  <si>
+    <t>cup(309).JPG</t>
+  </si>
+  <si>
+    <t>cup(311).JPG</t>
+  </si>
+  <si>
+    <t>cup(312).JPG</t>
+  </si>
+  <si>
+    <t>cup(313).JPG</t>
+  </si>
+  <si>
+    <t>cup(314).JPG</t>
+  </si>
+  <si>
+    <t>cup(315).JPG</t>
+  </si>
+  <si>
+    <t>cup(316).JPG</t>
+  </si>
+  <si>
+    <t>cup(317).JPG</t>
+  </si>
+  <si>
+    <t>cup(318).JPG</t>
+  </si>
+  <si>
+    <t>cup(319).JPG</t>
+  </si>
+  <si>
+    <t>cup(324).JPG</t>
+  </si>
+  <si>
+    <t>cup(325).JPG</t>
+  </si>
+  <si>
+    <t>cup(326).JPG</t>
+  </si>
+  <si>
+    <t>cup(327).JPG</t>
+  </si>
+  <si>
+    <t>cup(328).JPG</t>
+  </si>
+  <si>
+    <t>cup(329).JPG</t>
+  </si>
+  <si>
+    <t>cup(330).JPG</t>
+  </si>
+  <si>
+    <t>cup(331).JPG</t>
+  </si>
+  <si>
+    <t>cup(332).JPG</t>
+  </si>
+  <si>
+    <t>cup(333).JPG</t>
+  </si>
+  <si>
+    <t>cup(334).JPG</t>
+  </si>
+  <si>
+    <t>cup(336).JPG</t>
+  </si>
+  <si>
+    <t>cup(354).JPG</t>
+  </si>
+  <si>
+    <t>cup(355).JPG</t>
+  </si>
+  <si>
+    <t>cup(356).JPG</t>
+  </si>
+  <si>
+    <t>cup(357).JPG</t>
+  </si>
+  <si>
+    <t>cup(358).JPG</t>
+  </si>
+  <si>
+    <t>cup(359).JPG</t>
+  </si>
+  <si>
+    <t>cup(360).JPG</t>
+  </si>
+  <si>
+    <t>cup(361).JPG</t>
+  </si>
+  <si>
+    <t>cup(362).JPG</t>
+  </si>
+  <si>
+    <t>cup(363).JPG</t>
+  </si>
+  <si>
+    <t>cup(364).JPG</t>
+  </si>
+  <si>
+    <t>cup(365).JPG</t>
+  </si>
+  <si>
+    <t>cup(368).JPG</t>
+  </si>
+  <si>
+    <t>cup(369).JPG</t>
+  </si>
+  <si>
+    <t>cup(370).JPG</t>
+  </si>
+  <si>
+    <t>cup(371).JPG</t>
+  </si>
+  <si>
+    <t>cup(372).JPG</t>
+  </si>
+  <si>
+    <t>cup(373).jpg</t>
+  </si>
+  <si>
+    <t>cup(374).jpg</t>
+  </si>
+  <si>
+    <t>cup(375).jpg</t>
+  </si>
+  <si>
+    <t>cup(376).jpg</t>
+  </si>
+  <si>
+    <t>cup(379).jpg</t>
+  </si>
+  <si>
+    <t>cup(380).jpg</t>
+  </si>
+  <si>
+    <t>cup(381).jpg</t>
+  </si>
+  <si>
+    <t>cup(382).jpg</t>
+  </si>
+  <si>
+    <t>cup(383).jpg</t>
+  </si>
+  <si>
+    <t>cup(387).jpg</t>
+  </si>
+  <si>
+    <t>cup(389).jpg</t>
+  </si>
+  <si>
+    <t>cup(390).jpg</t>
+  </si>
+  <si>
+    <t>cup(392).jpg</t>
+  </si>
+  <si>
+    <t>cup(393).jpg</t>
+  </si>
+  <si>
+    <t>cup(394).jpg</t>
+  </si>
+  <si>
+    <t>cup(396).jpg</t>
+  </si>
+  <si>
+    <t>cup(398).jpg</t>
+  </si>
+  <si>
+    <t>cup(399).jpg</t>
+  </si>
+  <si>
+    <t>cup(400).jpg</t>
+  </si>
+  <si>
+    <t>cup(401).jpg</t>
+  </si>
+  <si>
+    <t>cup(402).jpg</t>
+  </si>
+  <si>
+    <t>cup(403).jpg</t>
+  </si>
+  <si>
+    <t>cup(406).jpg</t>
+  </si>
+  <si>
+    <t>cup(409).jpg</t>
+  </si>
+  <si>
+    <t>cup(410).jpg</t>
+  </si>
+  <si>
+    <t>cup(412).jpg</t>
+  </si>
+  <si>
+    <t>cup(413).jpg</t>
+  </si>
+  <si>
+    <t>cup(414).jpg</t>
+  </si>
+  <si>
+    <t>cup(415).jpg</t>
+  </si>
+  <si>
+    <t>cup(416).jpg</t>
   </si>
   <si>
     <t>[156.0, 69.0, 58.0, 95.0]</t>
